--- a/clase19_09_24/Ejercicio.xlsx
+++ b/clase19_09_24/Ejercicio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SIS254 - Metodos Numericos I\SIS254-MetodosNumericos\clase19_09_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DCD9EBE-6EBB-4B9E-B2A3-511FFCC220C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F8D74F-6F4E-494A-A438-05BB19BA0194}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{F3641028-792F-4A1E-908D-F88FBF060C2B}"/>
   </bookViews>
@@ -148,12 +148,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,19 +682,19 @@
   <dimension ref="B12:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>8</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>4</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>-1</v>
       </c>
       <c r="F12" s="3">
@@ -702,13 +702,13 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>-2</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>5</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="3">
@@ -716,13 +716,13 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>-1</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>6</v>
       </c>
       <c r="F14" s="3">
@@ -730,24 +730,24 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>8</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>4</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -755,35 +755,35 @@
       <c r="B19" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>-2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>5</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>-1</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>8</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>4</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>-1</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -803,15 +803,15 @@
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <f>+-J23*D18+D19</f>
         <v>0</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <f t="shared" ref="E23:F23" si="0">+-K23*E18+E19</f>
         <v>1</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -827,13 +827,13 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>-1</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>6</v>
       </c>
       <c r="J24" s="1">
@@ -841,21 +841,21 @@
         <v>0.25</v>
       </c>
       <c r="K24" s="1">
-        <f>+E28/E27</f>
-        <v>-2</v>
+        <f>-0.3333</f>
+        <v>-0.33329999999999999</v>
       </c>
       <c r="L24" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>8</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -863,41 +863,41 @@
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f>+-J27*D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E27" s="5">
-        <f t="shared" ref="E27" si="1">+-K27*E22+E23</f>
-        <v>1</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" ref="F27" si="2">+-L27*F22+F23</f>
+      <c r="E27" s="4">
+        <f>+E23</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <f>F23</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f>+-J24*D18+D20</f>
         <v>0</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f>+-J24*E18+E20</f>
         <v>-2</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <f>+-K24*F18+F20</f>
+        <v>5.6666999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D30" s="4">
+        <v>8</v>
+      </c>
+      <c r="E30" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D30" s="5">
-        <v>8</v>
-      </c>
-      <c r="E30" s="5">
-        <v>4</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -905,42 +905,42 @@
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f>+-J31*D26+D27</f>
         <v>0</v>
       </c>
-      <c r="E31" s="5">
-        <f t="shared" ref="E31" si="3">+-K31*E26+E27</f>
-        <v>1</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" ref="F31" si="4">+-L31*F26+F27</f>
-        <v>1</v>
+      <c r="E31" s="4">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="F31" s="4">
+        <f>0.75</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f>D28</f>
         <v>0</v>
       </c>
-      <c r="E32" s="5">
-        <f>+-K24*E27+E28</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <f>+-L24*F27+F28</f>
-        <v>3</v>
+      <c r="E32" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <f>6.5</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <f t="array" ref="J36:L38">MINVERSE(J22:L24)</f>
         <v>1</v>
       </c>
-      <c r="K36" s="6">
-        <v>0</v>
-      </c>
-      <c r="L36" s="6">
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
         <v>0</v>
       </c>
     </row>
@@ -955,13 +955,13 @@
       <c r="I37" t="s">
         <v>7</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <v>0.25</v>
       </c>
-      <c r="K37" s="6">
-        <v>1</v>
-      </c>
-      <c r="L37" s="6">
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+      <c r="L37" s="5">
         <v>0</v>
       </c>
     </row>
@@ -972,37 +972,37 @@
       <c r="E38">
         <v>6.75</v>
       </c>
-      <c r="J38" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="K38" s="6">
-        <v>2</v>
-      </c>
-      <c r="L38" s="6">
+      <c r="J38" s="5">
+        <v>-0.16667500000000002</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="L38" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E39">
-        <v>17.75</v>
+        <v>6.4997749999999996</v>
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <f t="array" ref="J40:L42">MINVERSE(D30:F32)</f>
         <v>0.125</v>
       </c>
-      <c r="K40" s="7">
-        <v>-0.5</v>
-      </c>
-      <c r="L40" s="7">
-        <v>0.20833333333333331</v>
+      <c r="K40" s="6">
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="L40" s="6">
+        <v>2.8846153846153848E-2</v>
       </c>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E41">
         <f t="array" ref="E41:E43">MMULT(J40:L42,E37:E39)</f>
-        <v>1.6979166666666665</v>
+        <v>0.99999350961538458</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1010,14 +1010,14 @@
       <c r="I41" t="s">
         <v>9</v>
       </c>
-      <c r="J41" s="7">
-        <v>0</v>
-      </c>
-      <c r="K41" s="7">
-        <v>1</v>
-      </c>
-      <c r="L41" s="7">
-        <v>-0.33333333333333331</v>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L41" s="6">
+        <v>-1.9230769230769232E-2</v>
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.3">
@@ -1025,21 +1025,21 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>0.83333333333333393</v>
-      </c>
-      <c r="J42" s="7">
-        <v>0</v>
-      </c>
-      <c r="K42" s="7">
-        <v>0</v>
-      </c>
-      <c r="L42" s="7">
-        <v>0.33333333333333331</v>
+        <v>1.0000043269230769</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E43">
-        <v>5.9166666666666661</v>
+        <v>0.99996538461538464</v>
       </c>
     </row>
   </sheetData>
